--- a/Predicción Electoral.xlsx
+++ b/Predicción Electoral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flor\Desktop\prediccion_presidencial2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8E0286-4235-4881-B07D-1A7E0842B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085E8C9-B134-4553-8B24-D36CE31D839D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19470" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,27 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>31</v>
       </c>
@@ -813,8 +801,9 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>31</v>
       </c>
@@ -849,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31</v>
       </c>
@@ -884,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>28</v>
       </c>
@@ -919,7 +908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
@@ -954,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>28</v>
       </c>
@@ -989,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>33</v>
       </c>
@@ -1024,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25</v>
       </c>
@@ -1059,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>35</v>
       </c>
@@ -1094,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>40</v>
       </c>
@@ -1129,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
@@ -1164,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45</v>
       </c>
@@ -1199,7 +1188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1234,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -1269,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22</v>
       </c>
